--- a/zee.xlsx
+++ b/zee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cogent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F91B2D-FB27-4752-BDF5-70E03038CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D217A5-EF22-42BD-B1BB-AB4E996E89A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6961E3FE-8346-4A77-9BD2-35DA2ED3A70B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Day 1</t>
   </si>
@@ -113,6 +113,39 @@
   </si>
   <si>
     <t>Day 2</t>
+  </si>
+  <si>
+    <t>1. NameNotFound</t>
+  </si>
+  <si>
+    <t>2. LOcationNotFoundException</t>
+  </si>
+  <si>
+    <t>3. INvalidAmountException</t>
+  </si>
+  <si>
+    <t>CRUD :</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>CRUD : Subscription : store the data in AL</t>
+  </si>
+  <si>
+    <t>CRUD : Movies : store the data in HS</t>
+  </si>
+  <si>
+    <t>CRUD : Series : Store the data in TS</t>
   </si>
 </sst>
 </file>
@@ -472,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2199B0C2-AC67-441C-930D-38AD4CE12012}">
-  <dimension ref="C3:D26"/>
+  <dimension ref="C3:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +623,61 @@
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="2"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
